--- a/history_log.xlsx
+++ b/history_log.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ip list</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Turning process log</t>
+  </si>
+  <si>
+    <t>ORH</t>
+  </si>
+  <si>
+    <t>ORH01</t>
+  </si>
+  <si>
+    <t>192.168.1.91</t>
   </si>
 </sst>
 </file>
@@ -162,18 +171,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,7 +494,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -495,7 +505,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
@@ -504,7 +514,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
@@ -513,7 +523,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,12 +532,23 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -560,30 +581,30 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>44886</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
